--- a/data/balance_sheet/3digits/total/142_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/142_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>142-Manufacture of articles of fur</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>142-Manufacture of articles of fur</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>226460.62945</v>
@@ -1484,19 +934,19 @@
         <v>312009.4317899999</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>452153.80818</v>
+        <v>452153.8081799999</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>551854.33499</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>802940.7793599999</v>
+        <v>802940.7793600002</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>839023.98925</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>683378.3703099999</v>
+        <v>728286.06907</v>
       </c>
       <c r="J5" s="33" t="n">
         <v>585490.1349600001</v>
@@ -1505,17 +955,22 @@
         <v>660545.6865599999</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>827845.9714500001</v>
+        <v>850066.9383900001</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>848154.19596</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>849228.25599</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>931219.87</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>55642.33113000001</v>
@@ -1536,7 +991,7 @@
         <v>146276.44357</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>134667.04571</v>
+        <v>138130.1182</v>
       </c>
       <c r="J6" s="33" t="n">
         <v>97809.53569</v>
@@ -1545,17 +1000,22 @@
         <v>88560.13671000001</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>110877.92354</v>
+        <v>116398.67186</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>114361.82324</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>114381.74408</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>154924.415</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>17511.13751</v>
@@ -1576,26 +1036,31 @@
         <v>26875.99218</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>35188.56046</v>
+        <v>35588.32538</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>36345.64486</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>36789.32963</v>
+        <v>36789.32962999999</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>29968.70046</v>
+        <v>35481.21487999999</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>39359.31997</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>39376.19283</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>33125.03</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>3912.62771</v>
@@ -1616,7 +1081,7 @@
         <v>51934.1585</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>55162.04748</v>
+        <v>56365.44938</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>18904.24149</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>22410.7904</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>13712.577</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>35204.95354</v>
@@ -1650,13 +1120,13 @@
         <v>52213.84653</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>72679.38129999999</v>
+        <v>72679.38130000001</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>78334.38812999999</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>49152.82907</v>
+        <v>51012.73474</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>45369.96911</v>
@@ -1665,17 +1135,22 @@
         <v>44137.45557</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>67067.64885</v>
+        <v>67075.88275</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>62580.06366</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>62583.11164</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>113708.129</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1020.21475</v>
@@ -1684,7 +1159,7 @@
         <v>3241.99514</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>7160.19275</v>
+        <v>7160.192750000001</v>
       </c>
       <c r="F10" s="21" t="n">
         <v>9785.912859999999</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>13262.66831</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>6398.189</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>33.82711999999999</v>
@@ -1748,14 +1228,19 @@
         <v>750.04614</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>3274.317520000001</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>3274.31752</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>776.8680000000001</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>2.634</v>
@@ -1776,7 +1261,7 @@
         <v>160.05099</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>77.99918000000001</v>
+        <v>77.99918</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>31.76974</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>2.634</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,15 +1500,20 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>45170.29011</v>
+        <v>45170.29011000001</v>
       </c>
       <c r="D18" s="23" t="n">
         <v>58742.63356</v>
@@ -2016,7 +1531,7 @@
         <v>294640.23636</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>245772.89132</v>
+        <v>263011.5794</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>182118.92216</v>
@@ -2025,23 +1540,28 @@
         <v>221793.11245</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>264081.13567</v>
+        <v>278224.56728</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>256747.27527</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>257383.77112</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>239126.932</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>37301.01552</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>49184.61768000001</v>
+        <v>49184.61768</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>70174.2061</v>
@@ -2056,7 +1576,7 @@
         <v>197973.05591</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>153469.59407</v>
+        <v>170662.00077</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>142671.32933</v>
@@ -2065,23 +1585,28 @@
         <v>164951.14161</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>187226.33943</v>
+        <v>201288.27699</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>175030.66008</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>175667.15593</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>164212.933</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
-        <v>6477.95669</v>
+        <v>6477.956689999999</v>
       </c>
       <c r="D20" s="22" t="n">
-        <v>8884.19931</v>
+        <v>8884.199309999998</v>
       </c>
       <c r="E20" s="22" t="n">
         <v>19568.25264</v>
@@ -2090,13 +1615,13 @@
         <v>41351.05987</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>70804.80540000001</v>
+        <v>70804.8054</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>93365.04426000001</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>80407.67821000001</v>
+        <v>80451.29221</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>27835.20823</v>
@@ -2105,17 +1630,22 @@
         <v>41997.85923</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>61763.54464</v>
+        <v>61787.21868999999</v>
       </c>
       <c r="M20" s="22" t="n">
         <v>66792.29403</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>56154.619</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>149.63782</v>
@@ -2216,7 +1756,7 @@
         <v>1152.7531</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>800.2133999999999</v>
+        <v>800.2134</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>1970.1288</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>3237.58178</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>3116.803</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1239.77874</v>
@@ -2256,26 +1801,31 @@
         <v>422.1328100000001</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>2900.21733</v>
+        <v>2902.88471</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>656.80917</v>
+        <v>656.8091699999999</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>2921.117</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>2446.9821</v>
+        <v>2504.8021</v>
       </c>
       <c r="M24" s="22" t="n">
         <v>1145.85938</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>4716.378</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>412.06852</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>26478.48499</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>26825.857</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>410.16718</v>
@@ -2350,15 +1905,20 @@
       <c r="M26" s="22" t="n">
         <v>15937.60499</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>15899.658</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
-        <v>4859.31148</v>
+        <v>4859.311479999999</v>
       </c>
       <c r="D27" s="23" t="n">
         <v>13429.51602</v>
@@ -2385,17 +1945,22 @@
         <v>11845.66644</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>18698.06179</v>
+        <v>18830.33975</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>26775.10234</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>26890.93128</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>34847.379</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1180.62826</v>
@@ -2425,17 +1990,22 @@
         <v>1419.46675</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>3206.71015</v>
+        <v>3322.99571</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>5836.513349999999</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>5952.79892</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>10366.279</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>2.54144</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>29.29952</v>
@@ -2530,7 +2110,7 @@
         <v>44.60954</v>
       </c>
       <c r="G31" s="22" t="n">
-        <v>53.65873000000001</v>
+        <v>53.65873</v>
       </c>
       <c r="H31" s="21" t="n">
         <v>180.52331</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>1284.34763</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>1336.107</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>3646.84226</v>
@@ -2576,7 +2161,7 @@
         <v>11870.0215</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>6242.268039999999</v>
+        <v>6242.26804</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>8567.418659999999</v>
@@ -2585,17 +2170,22 @@
         <v>10049.77626</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>14832.41895</v>
+        <v>14848.41135</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>12038.84894</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>12038.39231</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>15531.502</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>7615.39242</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>7613.491</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>112556.73245</v>
@@ -2736,26 +2341,31 @@
         <v>354079.77485</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>252104.86707</v>
+        <v>276115.66717</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>273234.8539700001</v>
+        <v>273234.85397</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>315358.87298</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>403309.80433</v>
+        <v>405160.6996699999</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>413372.77046</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>413630.6554</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>451751.742</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>44642.36314</v>
@@ -2776,7 +2386,7 @@
         <v>127390.96781</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>87885.1216</v>
+        <v>105808.97491</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>120517.129</v>
@@ -2785,17 +2395,22 @@
         <v>130343.88525</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>185075.18669</v>
+        <v>185308.52028</v>
       </c>
       <c r="M37" s="22" t="n">
         <v>185919.33426</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>180346.229</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>24545.18477</v>
@@ -2828,14 +2443,19 @@
         <v>17864.07206</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>30971.23086</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>30992.59119</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>43759.64</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>15661.30822</v>
@@ -2856,10 +2476,10 @@
         <v>48386.5364</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>37840.9522</v>
+        <v>38657.62339</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>35444.63269</v>
+        <v>35444.63269000001</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>30709.5289</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>53187.25304</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>57993.283</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>3445.79087</v>
@@ -2884,7 +2509,7 @@
         <v>7613.186259999999</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>9953.942370000001</v>
+        <v>9953.942369999999</v>
       </c>
       <c r="F40" s="21" t="n">
         <v>17526.54509</v>
@@ -2896,7 +2521,7 @@
         <v>38993.71274</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>35673.75491</v>
+        <v>35725.15044</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>29833.76893</v>
@@ -2905,20 +2530,25 @@
         <v>30575.43618</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>43595.65074</v>
+        <v>43933.60073999999</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>43522.91112</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>43759.43573</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>57242.672</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>97.73685999999999</v>
+        <v>97.73686000000001</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>151.08976</v>
@@ -2927,7 +2557,7 @@
         <v>2043.53954</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>765.8411599999999</v>
+        <v>765.8411600000001</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>3314.42154</v>
@@ -2936,26 +2566,31 @@
         <v>356.94904</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>783.1420299999999</v>
+        <v>783.14203</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>383.72106</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>651.23481</v>
+        <v>651.2348099999999</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>275.91071</v>
+        <v>275.9107099999999</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>196.70579</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>130.813</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>24164.34859</v>
@@ -3016,7 +2656,7 @@
         <v>108463.4816</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>67559.28863</v>
+        <v>72778.16870000001</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>75112.76090000001</v>
@@ -3025,17 +2665,22 @@
         <v>110332.19165</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>118048.49832</v>
+        <v>119328.11007</v>
       </c>
       <c r="M43" s="22" t="n">
         <v>99575.33538999999</v>
       </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+      <c r="N43" s="22" t="n">
+        <v>112279.105</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>83.59943</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>83.59943</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>387.41374</v>
@@ -3210,7 +2875,7 @@
         <v>821.3685700000001</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>771.31765</v>
+        <v>771.3176500000001</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>1622.58465</v>
@@ -3225,17 +2890,22 @@
         <v>3393.9124</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>6398.966689999999</v>
+        <v>6907.50787</v>
       </c>
       <c r="M48" s="46" t="n">
         <v>4082.09249</v>
       </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+      <c r="N48" s="46" t="n">
+        <v>5759.628</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>357.92338</v>
@@ -3265,17 +2935,22 @@
         <v>3154.83281</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>6185.15922</v>
+        <v>6693.700400000001</v>
       </c>
       <c r="M49" s="22" t="n">
         <v>3750.47691</v>
       </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+      <c r="N49" s="22" t="n">
+        <v>5132.303</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>29.49036</v>
@@ -3310,15 +2985,20 @@
       <c r="M50" s="22" t="n">
         <v>331.61558</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>627.325</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7758.31711</v>
+        <v>7758.317109999999</v>
       </c>
       <c r="D51" s="46" t="n">
         <v>11382.46313</v>
@@ -3336,7 +3016,7 @@
         <v>24453.55671</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>23898.5248</v>
+        <v>24093.66289</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>19106.77497</v>
@@ -3345,20 +3025,25 @@
         <v>19158.18207</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>24448.30969</v>
+        <v>24513.38222</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>32815.13215999999</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>32859.06162</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>44808.914</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>6466.802140000001</v>
+        <v>6466.80214</v>
       </c>
       <c r="D52" s="22" t="n">
         <v>9704.660830000001</v>
@@ -3376,7 +3061,7 @@
         <v>21656.29178</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>19108.13756</v>
+        <v>19110.55442</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>17132.54117</v>
@@ -3385,17 +3070,22 @@
         <v>16813.84023</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>19122.08484</v>
+        <v>19175.18737</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>26069.62867</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>26115.82408</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>30998.457</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>4.792770000000001</v>
@@ -3428,17 +3118,22 @@
         <v>7.0829</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>44.91497</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>42.64902</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>20.793</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
-        <v>996.71419</v>
+        <v>996.7141899999999</v>
       </c>
       <c r="D54" s="22" t="n">
         <v>1060.78375</v>
@@ -3456,7 +3151,7 @@
         <v>1386.60703</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>1278.23466</v>
+        <v>1378.46976</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>906.7331999999999</v>
@@ -3468,17 +3163,22 @@
         <v>1954.20358</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>2423.3646</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>2423.364599999999</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>2626.432</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>270.26441</v>
+        <v>270.2644100000001</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>201.10368</v>
@@ -3496,7 +3196,7 @@
         <v>919.5192</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>461.85696</v>
+        <v>507.55619</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>221.83558</v>
@@ -3510,12 +3210,17 @@
       <c r="M55" s="22" t="n">
         <v>858.0933200000001</v>
       </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+      <c r="N55" s="22" t="n">
+        <v>218.416</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>19.6436</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>1628.08307</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>4475.952</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>0.1</v>
@@ -3576,7 +3286,7 @@
         <v>36.85</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>11.97</v>
+        <v>18.32</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>18.17</v>
@@ -3585,17 +3295,22 @@
         <v>24.31836</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>265.1790999999999</v>
+        <v>277.1491</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>275.7397099999999</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>347.076</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>7.000000000000001e-05</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3656,7 +3376,7 @@
         <v>32.83844000000001</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>2646.89964</v>
+        <v>2687.33654</v>
       </c>
       <c r="J59" s="21" t="n">
         <v>403.52972</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>1515.30775</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>6121.788</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,21 +3434,26 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>47270.48618</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>68071.77751</v>
+        <v>68071.77750999999</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>90469.67201000001</v>
+        <v>90469.67200999999</v>
       </c>
       <c r="F61" s="37" t="n">
         <v>106271.46117</v>
@@ -3735,7 +3465,7 @@
         <v>104550.74961</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>119486.92528</v>
+        <v>123728.64939</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>131106.01918</v>
@@ -3744,17 +3474,22 @@
         <v>105603.82339</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>160748.12761</v>
+        <v>161111.59437</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>169115.75912</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>169143.94704</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>146288.846</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>275.28852</v>
@@ -3763,7 +3498,7 @@
         <v>494.31957</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>381.11581</v>
+        <v>381.1158100000001</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>506.7827</v>
@@ -3775,7 +3510,7 @@
         <v>1370.33548</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>4505.52155</v>
+        <v>4534.14589</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>329.49233</v>
@@ -3784,17 +3519,22 @@
         <v>1173.90352</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>1357.10527</v>
+        <v>1364.78631</v>
       </c>
       <c r="M62" s="36" t="n">
         <v>1306.73853</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>645.232</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>676.82911</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>23.407</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>275.28852</v>
@@ -3975,7 +3735,7 @@
         <v>483.36609</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>578.6415499999999</v>
+        <v>607.26589</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>329.49233</v>
@@ -3984,17 +3744,22 @@
         <v>407.43211</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>544.5631599999999</v>
+        <v>552.2442</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>629.90942</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>621.825</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1.33473</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>10293.93378</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>293.93378</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>10000</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>1.33473</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>4806.34185</v>
@@ -4363,7 +4173,7 @@
         <v>4762.162</v>
       </c>
       <c r="E77" s="23" t="n">
-        <v>22196.60592999999</v>
+        <v>22196.60593</v>
       </c>
       <c r="F77" s="33" t="n">
         <v>23341.75487</v>
@@ -4372,10 +4182,10 @@
         <v>9395.089810000001</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>9661.453600000001</v>
+        <v>9661.453599999999</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>5891.495629999999</v>
+        <v>9264.134779999998</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>14925.59211</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>24847.12758</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>24728.683</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>788.90931</v>
@@ -4415,26 +4230,31 @@
         <v>499.22384</v>
       </c>
       <c r="I78" s="22" t="n">
-        <v>281.25498</v>
+        <v>382.86913</v>
       </c>
       <c r="J78" s="21" t="n">
-        <v>455.83745</v>
+        <v>455.8374499999999</v>
       </c>
       <c r="K78" s="22" t="n">
         <v>455.83745</v>
       </c>
       <c r="L78" s="22" t="n">
-        <v>455.8374499999999</v>
+        <v>455.83745</v>
       </c>
       <c r="M78" s="22" t="n">
         <v>424.93545</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>423.936</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>16.91159</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>2417.95609</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>20864.61518</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>20747.155</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>98.25014</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0.01464</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>1714.63818</v>
@@ -4615,7 +4455,7 @@
         <v>4021.025</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>1000</v>
+        <v>4271.025</v>
       </c>
       <c r="J83" s="21" t="n">
         <v>3271.025</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>3557.59159</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>3557.592</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>36745.67025</v>
@@ -4815,7 +4680,7 @@
         <v>77017.10952</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>62060.76341</v>
+        <v>62578.65475</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>67125.03547</v>
@@ -4824,17 +4689,22 @@
         <v>69011.92906000001</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>96454.75682000001</v>
+        <v>96802.25753999999</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>98298.90033000002</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>98327.08825</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>87883.147</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>11272.26601</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>4614.68892</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>5316.689</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>143.81721</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>1052.51642</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>1052.516</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>18045.49558</v>
@@ -4941,20 +4821,25 @@
         <v>51364.9662</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>54313.51616</v>
+        <v>54313.51616000001</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>82728.07781999999</v>
+        <v>83084.29640000001</v>
       </c>
       <c r="M91" s="22" t="n">
         <v>83726.89912999999</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>72440.848</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>18955.19459</v>
@@ -4975,7 +4860,7 @@
         <v>23601.61649</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>20943.9775</v>
+        <v>21908.40683</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>21601.56282</v>
@@ -4989,12 +4874,17 @@
       <c r="M92" s="22" t="n">
         <v>22679.44925</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>23490.23</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>8654.084580000001</v>
@@ -5015,7 +4905,7 @@
         <v>16116.03054</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>14398.90946</v>
+        <v>15059.17713</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>12715.5419</v>
@@ -5027,17 +4917,22 @@
         <v>14714.63752</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>16337.17788</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>16363.77856</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>16702.93</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>7605.968</v>
+        <v>7605.967999999999</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>8377.16732</v>
@@ -5055,7 +4950,7 @@
         <v>12139.00356</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>10464.3822</v>
+        <v>11868.37125</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>12788.07244</v>
@@ -5064,20 +4959,25 @@
         <v>13319.76987</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>14551.65141</v>
+        <v>14571.51727</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>15303.86881</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>15330.49712</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>16495.689</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
-        <v>51.19394999999999</v>
+        <v>51.19395</v>
       </c>
       <c r="D95" s="22" t="n">
         <v>48.25012</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>47.58033</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>46.323</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>28403.18518</v>
@@ -5126,16 +5031,16 @@
         <v>34284.10515</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>37164.41853999999</v>
+        <v>37164.41854</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>42537.02777</v>
+        <v>42537.02776999999</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>43897.48114</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>36548.46608</v>
+        <v>39059.26079000001</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>40046.07309000001</v>
@@ -5144,17 +5049,22 @@
         <v>42493.26323</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>45655.7986</v>
+        <v>45684.38232</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>46842.85290000001</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>46867.89397</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>50137.215</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>219.04612</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>419.00399</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>384.568</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>201.78939</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>960.5685</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>2090.569</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>4809.185</v>
@@ -5246,7 +5166,7 @@
         <v>5273.905519999999</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>7246.021600000001</v>
+        <v>7246.0216</v>
       </c>
       <c r="G99" s="23" t="n">
         <v>7739.37112</v>
@@ -5255,26 +5175,31 @@
         <v>9930.253570000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>24229.75015</v>
+        <v>24472.30963</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>26316.58488</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>5967.565869999999</v>
+        <v>5967.56587</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>20711.96253</v>
+        <v>20720.24753</v>
       </c>
       <c r="M99" s="23" t="n">
         <v>18693.74685</v>
       </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+      <c r="N99" s="23" t="n">
+        <v>17502.972</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>1767.15223</v>
@@ -5283,7 +5208,7 @@
         <v>1795.72094</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>4200.437279999999</v>
+        <v>4200.43728</v>
       </c>
       <c r="F100" s="21" t="n">
         <v>6698.721529999999</v>
@@ -5295,7 +5220,7 @@
         <v>9765.24044</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>24630.35261</v>
+        <v>24645.99809</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>26854.24238</v>
@@ -5304,17 +5229,22 @@
         <v>3817.52593</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>4608.02159</v>
+        <v>4616.30659</v>
       </c>
       <c r="M100" s="22" t="n">
         <v>3986.74574</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>3758.877</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>20.88179</v>
@@ -5363,7 +5298,7 @@
         <v>29.28226</v>
       </c>
       <c r="E102" s="22" t="n">
-        <v>36.12898999999999</v>
+        <v>36.12899</v>
       </c>
       <c r="F102" s="21" t="n">
         <v>38.89504</v>
@@ -5372,10 +5307,10 @@
         <v>46.63772</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>41.17050999999999</v>
+        <v>41.17051</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>34.17097</v>
+        <v>38.39441</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>35.45469</v>
@@ -5384,17 +5319,22 @@
         <v>40.46196</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>37.20763</v>
+        <v>37.20762999999999</v>
       </c>
       <c r="M102" s="22" t="n">
         <v>75.8476</v>
       </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+      <c r="N102" s="22" t="n">
+        <v>72.71899999999999</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>5718.29459</v>
@@ -5443,7 +5388,7 @@
         <v>5632.47755</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>5852.525959999999</v>
+        <v>5852.52596</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>6206.82862</v>
@@ -5452,10 +5397,10 @@
         <v>8281.54601</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>7005.67845</v>
+        <v>7005.678450000001</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>5399.051189999999</v>
+        <v>7128.10674</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>6923.85412</v>
@@ -5467,23 +5412,28 @@
         <v>26982.13822</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>29320.68028</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>29323.97202</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>33174.524</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>698.4066399999999</v>
+        <v>698.40664</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>653.3264</v>
+        <v>653.3264000000001</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>696.0726400000001</v>
+        <v>696.07264</v>
       </c>
       <c r="F105" s="21" t="n">
         <v>840.70851</v>
@@ -5495,7 +5445,7 @@
         <v>1187.09837</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>908.4513499999999</v>
+        <v>1213.8865</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>1228.67469</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>1349.70972</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>1423.877</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>4250.91817</v>
@@ -5535,7 +5490,7 @@
         <v>8069.8442</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>6794.639970000001</v>
+        <v>8606.44011</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>8782.949000000001</v>
@@ -5547,14 +5502,19 @@
         <v>12301.68603</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>16096.54449</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>16099.83623</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>21030.059</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>855.36792</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>57.308</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>103.034</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,15 +5819,20 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>481.5238100000001</v>
+        <v>481.5238099999999</v>
       </c>
       <c r="D114" s="23" t="n">
         <v>697.1213899999999</v>
@@ -5855,13 +5850,13 @@
         <v>3624.6028</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>10974.30445</v>
+        <v>11054.31425</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>4807.450440000001</v>
       </c>
       <c r="K114" s="23" t="n">
-        <v>5183.088720000001</v>
+        <v>5183.08872</v>
       </c>
       <c r="L114" s="23" t="n">
         <v>9607.431789999999</v>
@@ -5869,12 +5864,17 @@
       <c r="M114" s="23" t="n">
         <v>12288.43924</v>
       </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+      <c r="N114" s="23" t="n">
+        <v>12323.83</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>481.11875</v>
@@ -5895,7 +5895,7 @@
         <v>3624.6028</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>10974.30445</v>
+        <v>11054.31425</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>4807.450440000001</v>
@@ -5909,12 +5909,17 @@
       <c r="M115" s="22" t="n">
         <v>12288.43924</v>
       </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+      <c r="N115" s="22" t="n">
+        <v>12323.83</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0.40506</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>151.14202</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>3386.87281</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>3204.982</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.7094600000000001</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>150.43256</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>398.83331</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>211.264</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>757.66563</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>757.708</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,26 +6399,31 @@
         <v>386.17301</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>2307.032099999999</v>
+        <v>2307.0321</v>
       </c>
       <c r="M126" s="22" t="n">
         <v>2230.37387</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>2235.243</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>273731.11563</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>380081.2093</v>
+        <v>380081.2092999999</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>542623.48019</v>
+        <v>542623.4801899999</v>
       </c>
       <c r="F127" s="33" t="n">
         <v>658125.7961599999</v>
@@ -6372,26 +6432,29 @@
         <v>914202.4426800001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>943574.73886</v>
+        <v>943574.7388600002</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>802865.29559</v>
+        <v>852014.7184599999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>716596.15414</v>
+        <v>716596.1541400001</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>766149.5099500001</v>
+        <v>766149.50995</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>988594.0990599999</v>
+        <v>1011178.53276</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1017269.95508</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1018372.20303</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1077508.716</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>142-Manufacture of articles of fur</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>128213.75714</v>
@@ -6501,13 +6578,13 @@
         <v>433796.34561</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>627049.21134</v>
+        <v>627049.2113399999</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>633408.86771</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>489759.39839</v>
+        <v>521868.4599</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>413180.18778</v>
@@ -6516,23 +6593,28 @@
         <v>438090.9829</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>559481.1908300001</v>
+        <v>577347.08288</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>545488.8839400001</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>548685.52926</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>636298.378</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>33175.56090999999</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>51596.45441</v>
+        <v>51596.45441000001</v>
       </c>
       <c r="E133" s="23" t="n">
         <v>82485.54859000001</v>
@@ -6547,7 +6629,7 @@
         <v>268065.55353</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>178149.86401</v>
+        <v>192083.74876</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>107513.5777</v>
@@ -6556,17 +6638,22 @@
         <v>115454.8525</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>136071.3341</v>
+        <v>147907.05917</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>114243.32139</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>114268.68494</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>205470.394</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>32647.12664</v>
@@ -6587,26 +6674,31 @@
         <v>263741.63698</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>174842.61512</v>
+        <v>188765.50617</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>92185.60238999999</v>
+        <v>92185.60239</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>86565.16396999999</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>112941.64317</v>
+        <v>124777.36824</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>103193.77682</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>103219.14037</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>151983.784</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>64.94322</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>10.53969</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>4.76499</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>404.56403</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>10544.56424</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>53215.933</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>63.69201</v>
@@ -6907,13 +7034,13 @@
         <v>71.77819000000001</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>40.86629</v>
+        <v>51.85999</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>226.97589</v>
       </c>
       <c r="K142" s="22" t="n">
-        <v>97.15358000000001</v>
+        <v>97.15358000000002</v>
       </c>
       <c r="L142" s="22" t="n">
         <v>508.33999</v>
@@ -6921,18 +7048,23 @@
       <c r="M142" s="22" t="n">
         <v>494.44064</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>270.577</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>54349.22395</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>77177.35481999999</v>
+        <v>77177.35482000001</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>116405.26167</v>
@@ -6947,7 +7079,7 @@
         <v>229275.00547</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>184301.73056</v>
+        <v>194188.69804</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>137727.90945</v>
@@ -6956,17 +7088,22 @@
         <v>159217.78741</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>200452.58092</v>
+        <v>205072.7507</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>226025.29259</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>227108.69557</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>194443.194</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>38790.59126</v>
@@ -6975,7 +7112,7 @@
         <v>52099.57943999999</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>73109.34298</v>
+        <v>73109.34297999999</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>87164.64984</v>
@@ -6984,29 +7121,34 @@
         <v>107242.76583</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>76534.96773</v>
+        <v>76534.96772999999</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>71209.29743999999</v>
+        <v>73165.6373</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>62304.23851</v>
       </c>
       <c r="K144" s="25" t="n">
-        <v>61518.00116000001</v>
+        <v>61518.00116</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>81975.69085000001</v>
+        <v>82956.43554999999</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>84055.29007999999</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>84480.50802000001</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>67896.92600000001</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>15054.02958</v>
@@ -7027,7 +7169,7 @@
         <v>145434.90662</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>110814.71114</v>
+        <v>118745.33876</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>73528.54737999999</v>
@@ -7036,17 +7178,22 @@
         <v>93848.06219999999</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>111342.03275</v>
+        <v>114981.45783</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>135039.92638</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>135553.45688</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>119784.383</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>115.239</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>93.688</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>504.60311</v>
@@ -7141,10 +7298,10 @@
         <v>3522.21105</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>2512.87819</v>
+        <v>2512.878189999999</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>7190.47379</v>
+        <v>7190.473789999999</v>
       </c>
       <c r="I148" s="25" t="n">
         <v>2138.08504</v>
@@ -7156,17 +7313,22 @@
         <v>3756.74205</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>7037.73332</v>
+        <v>7037.733319999999</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>6814.83713</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>6959.49167</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>6668.197</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>7773.17249</v>
@@ -7175,7 +7337,7 @@
         <v>19978.31097</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>47309.05736999999</v>
+        <v>47309.05737</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>70242.24812</v>
@@ -7184,10 +7346,10 @@
         <v>55810.36916</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>38189.86521000001</v>
+        <v>38189.86521</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>47407.59246</v>
+        <v>55265.81434</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>75779.85016</v>
@@ -7196,17 +7358,22 @@
         <v>69434.13146999999</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>93286.23719</v>
+        <v>94160.34735</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>102398.16167</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>104400.19467</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>136591.683</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>6805.01758</v>
@@ -7215,7 +7382,7 @@
         <v>16393.59151</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>42011.09876</v>
+        <v>42011.09876000001</v>
       </c>
       <c r="F150" s="21" t="n">
         <v>66634.67924</v>
@@ -7227,7 +7394,7 @@
         <v>32028.93519</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>39125.36498999999</v>
+        <v>46844.15298</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>63977.81922</v>
@@ -7236,17 +7403,22 @@
         <v>51184.97321</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>76642.74245000001</v>
+        <v>77516.85261</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>85300.00055</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>87404.92575999998</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>123033.315</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>517.6415</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>513.114</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>7172.7215</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>762.9369300000001</v>
@@ -7347,32 +7529,37 @@
         <v>3436.58496</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>5069.69391</v>
+        <v>5209.127800000001</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>6965.255529999999</v>
+        <v>6965.25553</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>7108.96288</v>
+        <v>7108.962880000001</v>
       </c>
       <c r="L153" s="22" t="n">
         <v>7681.97945</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>7753.46308</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>7741.865870000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>6117.971</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>205.21798</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>2132.939820000001</v>
+        <v>2132.93982</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>3808.45401</v>
@@ -7399,14 +7586,19 @@
         <v>1266.76829</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>1654.33504</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>1563.04004</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>6927.283</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>30210.89574</v>
@@ -7467,26 +7664,31 @@
         <v>91001.82493999999</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>71503.11826999999</v>
+        <v>71811.38987</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>80353.81014</v>
+        <v>80353.81014000002</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>82451.7188</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>111958.21572</v>
+        <v>112487.21922</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>83710.31522</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>83775.85968000001</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>80182.827</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>30210.89574</v>
@@ -7507,26 +7709,31 @@
         <v>86792.71968000001</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>70087.24283</v>
+        <v>70395.51443000001</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>79806.35562</v>
       </c>
       <c r="K157" s="22" t="n">
-        <v>81802.25669999998</v>
+        <v>81802.2567</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>111073.84803</v>
+        <v>111602.85153</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>82825.94753</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>82891.49199000001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>79310.743</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>884.3676899999999</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>872.0839999999999</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>1734.58868</v>
@@ -7707,7 +7934,7 @@
         <v>4732.10189</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>6828.91425</v>
+        <v>6949.505099999999</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>8472.98899</v>
@@ -7716,20 +7943,25 @@
         <v>8826.724199999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>13020.95262</v>
+        <v>13027.83616</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>14746.46746</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>14815.18286</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>14908.145</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>779.95681</v>
+        <v>779.9568099999999</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>1551.17204</v>
@@ -7747,7 +7979,7 @@
         <v>2329.1213</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>3653.880810000001</v>
+        <v>3703.530420000001</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>2395.21295</v>
@@ -7756,20 +7988,25 @@
         <v>1628.21155</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>3213.58691</v>
+        <v>3218.19238</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>3433.35026</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>3379.58637</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>2801.655</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>761.0528800000001</v>
+        <v>761.05288</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>1066.47985</v>
@@ -7787,7 +8024,7 @@
         <v>1808.69855</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1392.3391</v>
+        <v>1463.28034</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>1439.35329</v>
@@ -7796,17 +8033,22 @@
         <v>1860.81531</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>3125.6875</v>
+        <v>3127.96557</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>2984.14037</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>3004.13754</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>2328.497</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>193.51142</v>
@@ -7833,20 +8075,25 @@
         <v>4638.42275</v>
       </c>
       <c r="K165" s="22" t="n">
-        <v>5335.04377</v>
+        <v>5335.043769999999</v>
       </c>
       <c r="L165" s="22" t="n">
         <v>6646.8655</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>8199.37319</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>8301.855310000001</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>9633.986999999999</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.06756999999999999</v>
@@ -7881,33 +8128,38 @@
       <c r="M166" s="22" t="n">
         <v>129.60364</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>144.006</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>483.36853</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>610.71492</v>
+        <v>610.7149199999999</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>614.71558</v>
+        <v>614.7155799999999</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>732.53467</v>
+        <v>732.5346699999999</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>809.0527799999999</v>
+        <v>809.05278</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>769.2470400000001</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>780.2028500000001</v>
+        <v>780.20285</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>670.42401</v>
@@ -7919,14 +8171,19 @@
         <v>655.9200400000001</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>977.28907</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>928.75117</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>1178.62</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>2005.40736</v>
@@ -7961,12 +8218,17 @@
       <c r="M168" s="22" t="n">
         <v>2644.32853</v>
       </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+      <c r="N168" s="22" t="n">
+        <v>1998.21</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1522.03883</v>
@@ -7999,14 +8261,19 @@
         <v>3247.12178</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>2368.33028</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>2416.86818</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>1520.88</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>316.53238</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>316.532</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>384.75844</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>384.758</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>484.7781900000001</v>
+        <v>484.77819</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>399.57794</v>
+        <v>399.5779400000001</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>1100.76135</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>3369.14724</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>3482.306</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>2.31106</v>
@@ -8201,18 +8488,23 @@
       <c r="M174" s="22" t="n">
         <v>12.87823</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>482.46713</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>396.2844200000001</v>
+        <v>396.28442</v>
       </c>
       <c r="E175" s="22" t="n">
         <v>607.33689</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>3356.26901</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>3481.166</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>2.16865</v>
@@ -8267,7 +8564,7 @@
         <v>0.36754</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>52.51599</v>
+        <v>53.64093999999999</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>269.29138</v>
@@ -8279,14 +8576,19 @@
         <v>0</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>18.8893</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>19.01313</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>41.209</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>0</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>8.058630000000001</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>8.182460000000001</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>9.183</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.16239</v>
@@ -8347,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="I178" s="22" t="n">
-        <v>0</v>
+        <v>1.12495</v>
       </c>
       <c r="J178" s="21" t="n">
         <v>269.2889</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>9.266080000000001</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>32.026</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>2.00626</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>1.56459</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>16708.49241</v>
@@ -8519,20 +8846,25 @@
         <v>135607.6482</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>197068.15896</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>197068.15897</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>185997.711</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>6578.56299</v>
       </c>
       <c r="D183" s="23" t="n">
-        <v>9537.700939999999</v>
+        <v>9537.700940000001</v>
       </c>
       <c r="E183" s="23" t="n">
         <v>16133.00136</v>
@@ -8541,7 +8873,7 @@
         <v>22234.99422</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>36573.40066000001</v>
+        <v>36573.40066</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>40269.41611999999</v>
@@ -8550,7 +8882,7 @@
         <v>117546.60097</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>97712.95964</v>
+        <v>97712.95964000002</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>118858.22717</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>189333.11905</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>160816.543</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>6477.71386</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>189290.58698</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>160778.716</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>106.09339</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>53.74718</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>53.747</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>5.24426</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>15.91991</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>4.704800000000001</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>3243.5632</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>148.64326</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>148.643</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>3243.5632</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>148.64326</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>148.643</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>6800.04708</v>
@@ -9095,7 +9497,7 @@
         <v>4317.33862</v>
       </c>
       <c r="E197" s="23" t="n">
-        <v>6774.412289999999</v>
+        <v>6774.41229</v>
       </c>
       <c r="F197" s="33" t="n">
         <v>12880.63653</v>
@@ -9113,20 +9515,25 @@
         <v>8461.822050000001</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>5757.854629999999</v>
+        <v>5757.85463</v>
       </c>
       <c r="L197" s="23" t="n">
         <v>1116.17368</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>3533.032270000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>3533.03228</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>18188.975</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>6800.04708</v>
@@ -9159,14 +9566,19 @@
         <v>567.68364</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>2845.511480000001</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>2845.51149</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>17090.614</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>486.27376</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>746.272</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>201.24703</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>352.089</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>2872.63103</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>4744.305</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>2872.63103</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>4744.305</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>4.705</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>4.705</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>86.31914</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>1180.73335</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2094.499</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>86.31914</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9716,17 +10193,22 @@
         <v>62.51224</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>62.70182</v>
+        <v>62.70181999999999</v>
       </c>
       <c r="M212" s="22" t="n">
         <v>1180.73335</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>2094.499</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>128808.86608</v>
@@ -9907,7 +10409,7 @@
         <v>236548.94653</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>172645.71863</v>
+        <v>189686.07999</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>196558.99301</v>
@@ -9916,17 +10418,22 @@
         <v>202814.20233</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>293505.2600299999</v>
+        <v>298223.80168</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>274712.91218</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>272618.5148</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>255212.627</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>109123.47443</v>
@@ -9947,7 +10454,7 @@
         <v>165331.11194</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>135970.28085</v>
+        <v>151206.28085</v>
       </c>
       <c r="J218" s="33" t="n">
         <v>160899.25672</v>
@@ -9956,17 +10463,22 @@
         <v>181182.98842</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>180926.44365</v>
+        <v>191777.2122</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>173515.72396</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>180140.72396</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>186590.699</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>95826.42040999999</v>
@@ -9987,7 +10499,7 @@
         <v>156925</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>125865</v>
+        <v>141101</v>
       </c>
       <c r="J219" s="21" t="n">
         <v>149741</v>
@@ -9996,17 +10508,22 @@
         <v>169798.25</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>169438.25</v>
+        <v>180038.25</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>164018.63111</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>171643.63111</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>179741.25</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>5229.76851</v>
@@ -10024,7 +10541,7 @@
         <v>6049.133859999999</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>5286.465289999999</v>
+        <v>5286.46529</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>2901.00476</v>
@@ -10039,14 +10556,19 @@
         <v>1260.36788</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>724.70113</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>1724.70113</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>3451.323</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>18535.80037</v>
@@ -10076,17 +10598,22 @@
         <v>13156.059</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>12748.56153</v>
+        <v>12999.33008</v>
       </c>
       <c r="M221" s="22" t="n">
         <v>10221.79398</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>10300.772</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>8.97784</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>148.1172</v>
@@ -10144,7 +10676,7 @@
         <v>1978.32804</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>2658.58298</v>
+        <v>2658.582980000001</v>
       </c>
       <c r="I223" s="23" t="n">
         <v>3033.0111</v>
@@ -10156,17 +10688,22 @@
         <v>18835.17061</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>88265.84763999999</v>
+        <v>88265.84764000001</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>85077.80575999999</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>85077.80576</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>70117.21000000001</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>4.40195</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>4.40195</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>8984.78709</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>2583.906</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>48992.78383</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>45628.471</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>143.71525</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>27095.83289</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>21900.431</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>13768.79143</v>
@@ -10467,26 +11039,31 @@
         <v>33776.16282</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>36483.61565</v>
+        <v>36585.49322</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>54210.68783</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>47352.6953</v>
+        <v>47352.69530000001</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>48695.09069999999</v>
+        <v>50212.62773</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>40301.64876999999</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>40714.45486</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>39976.171</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>3734.16004</v>
@@ -10507,7 +11084,7 @@
         <v>6136.83359</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>8432.917609999999</v>
+        <v>8534.795179999999</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>9135.592670000002</v>
@@ -10516,20 +11093,25 @@
         <v>9487.64371</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>9204.43231</v>
+        <v>9435.721670000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>5958.13005</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>6164.443490000001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>6210.494</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
-        <v>96.35198</v>
+        <v>96.35198000000001</v>
       </c>
       <c r="D233" s="22" t="n">
         <v>117.67135</v>
@@ -10556,23 +11138,28 @@
         <v>314.25588</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>105.66597</v>
+        <v>311.79921</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>105.30656</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>311.79921</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>311.799</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>7921.01551</v>
+        <v>7921.015510000001</v>
       </c>
       <c r="D234" s="22" t="n">
-        <v>8281.842710000001</v>
+        <v>8281.842709999999</v>
       </c>
       <c r="E234" s="22" t="n">
         <v>7909.517779999999</v>
@@ -10596,17 +11183,22 @@
         <v>18704.66827</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>18853.17139</v>
+        <v>19075.97013</v>
       </c>
       <c r="M234" s="22" t="n">
         <v>21243.88237</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>21438.327</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2017.2639</v>
@@ -10676,17 +11273,22 @@
         <v>18846.12744</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>20531.82103</v>
+        <v>21389.13672</v>
       </c>
       <c r="M236" s="22" t="n">
         <v>12994.32979</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>12015.551</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>16673.60919</v>
@@ -10701,13 +11303,13 @@
         <v>33666.4831</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>50715.59788</v>
+        <v>50715.59787999999</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>56418.83463</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>46478.25975</v>
+        <v>48413.93356</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>48104.17876</v>
@@ -10716,17 +11318,22 @@
         <v>38447.49655</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>47790.66714</v>
+        <v>51405.1729</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>52778.00976000001</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>53189.30071</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>58328.145</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-15095.51925</v>
@@ -10747,7 +11354,7 @@
         <v>-26734.22653</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-39056.33889</v>
+        <v>-39156.75283</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-72612.77962999999</v>
@@ -10756,23 +11363,28 @@
         <v>-95409.59653</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-83872.91434</v>
+        <v>-94310.24917</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-80073.24943000001</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-89354.08467</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-95217.853</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>4190.39308</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>7363.37695</v>
+        <v>7363.376949999999</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>9987.044159999999</v>
@@ -10787,7 +11399,7 @@
         <v>5098.480689999999</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-10263.10983</v>
+        <v>-10395.88591</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>-15514.54158</v>
@@ -10796,20 +11408,25 @@
         <v>12405.44798</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>11700.12524</v>
+        <v>10873.19038</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>3112.97336</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>2850.31418</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-4581.745</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
-        <v>7234.532480000001</v>
+        <v>7234.53248</v>
       </c>
       <c r="D240" s="22" t="n">
         <v>10620.925</v>
@@ -10830,7 +11447,7 @@
         <v>28436.53434</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>9310.037350000002</v>
+        <v>9310.037350000001</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>18386.44642</v>
@@ -10841,12 +11458,17 @@
       <c r="M240" s="22" t="n">
         <v>13987.35121</v>
       </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="N240" s="22" t="n">
+        <v>16159.069</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>3044.1394</v>
@@ -10867,63 +11489,71 @@
         <v>11815.17715</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>38699.64417</v>
+        <v>38832.42025</v>
       </c>
       <c r="J241" s="21" t="n">
         <v>24824.57893</v>
       </c>
       <c r="K241" s="22" t="n">
-        <v>5980.998439999999</v>
+        <v>5980.99844</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>11562.20406</v>
+        <v>12389.13892</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>10874.37785</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>11137.03703</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>20740.814</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>273731.11563</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>380081.2092999999</v>
+        <v>380081.2093</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>542623.48019</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>658125.7961600001</v>
+        <v>658125.7961599998</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>914202.44268</v>
+        <v>914202.4426800001</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>943574.7388600002</v>
+        <v>943574.73886</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>802865.29559</v>
+        <v>852014.7184599999</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>716596.15414</v>
+        <v>716596.1541399999</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>766149.50995</v>
+        <v>766149.5099500001</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>988594.09906</v>
+        <v>1011178.53276</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1017269.95508</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1018372.20303</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1077508.716</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>74</v>
@@ -10963,7 +11596,7 @@
         <v>90</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>82</v>
@@ -10972,14 +11605,17 @@
         <v>81</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>71</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>77</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>75</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>